--- a/_sync/游戏开发/丧尸危机复刻.xlsx
+++ b/_sync/游戏开发/丧尸危机复刻.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\a690089735.github.io\_sync\游戏开发\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35064B1-1569-47FF-875D-8F163961F865}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="经典4方向版" sheetId="1" r:id="rId1"/>
+    <sheet name="自由移动版" sheetId="2" r:id="rId2"/>
+    <sheet name="DCC对比" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +26,327 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左屏拖拽移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右屏点击射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮基座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移待切换x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动射击?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷溅块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4CM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3DMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出GLTF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凑合能导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GP画笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自研工具凑合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画工具集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多动画导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件研发难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义形状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLAAction,或者兼容Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个文件的不同时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多场景切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene层(可复用数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大纲层(可传递数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不爽,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常爽,优秀的层级式控制器思维,和非常符合直觉的反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰富,但有些功能只是好玩,不实用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约等于没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀的实时动画层,配合层级控制器玩着很爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画控制逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝笔工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道怎么导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰富,有些陈旧,但每个功能都很有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好用,直接加和导出冲突,需要加额外绑定,导出骨骼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰富,总有意想不到的惊喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有,爽感尚可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般,但有节点绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凑合用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示层(可传递数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +370,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +388,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228217</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2748A0BB-1EC7-4B30-BAF2-7DE1D9EF74C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="180975"/>
+          <a:ext cx="3066667" cy="1857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>656886</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169D6F56-7CDE-4245-B6C7-4A2497158BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="180975"/>
+          <a:ext cx="2714286" cy="1609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +745,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86419146-03BC-4EA1-A538-CB6AAEE53180}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0A54A-91A3-4E39-A25C-719811B0498E}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="46.875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_sync/游戏开发/丧尸危机复刻.xlsx
+++ b/_sync/游戏开发/丧尸危机复刻.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\a690089735.github.io\_sync\游戏开发\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35064B1-1569-47FF-875D-8F163961F865}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CAB214-8B08-48D1-BB4F-6966F396854B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scene层(可复用数据)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大纲层(可传递数据)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,18 +289,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好用,直接加和导出冲突,需要加额外绑定,导出骨骼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丰富,总有意想不到的惊喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有,爽感尚可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +306,61 @@
   </si>
   <si>
     <t>显示层(可传递数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常丰富,总有意想不到的惊喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好用,直接加到骨骼会和导出冲突,需要加额外绑定,导出骨骼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene层(可直接复用数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>godot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unreal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bevy</t>
+  </si>
+  <si>
+    <t>laya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +368,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +392,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,15 +418,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -965,18 +1019,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D0A54A-91A3-4E39-A25C-719811B0498E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="32.875" customWidth="1"/>
-    <col min="3" max="3" width="46.875" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="3" max="3" width="50.5" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -987,12 +1041,12 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -1015,7 +1069,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1029,21 +1083,21 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1057,7 +1111,7 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1065,27 +1119,27 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1096,10 +1150,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1121,17 +1175,80 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A19" r:id="rId1" display="https://yiviv.com/bevy-cheatbook/builtins.html" xr:uid="{A7E35A6D-96B1-4C68-A5DC-6D0A543427F5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>